--- a/assets/Libro12.xlsx
+++ b/assets/Libro12.xlsx
@@ -710,8 +710,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,8 +857,12 @@
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="11">
+        <v>40852</v>
+      </c>
+      <c r="D28" s="11">
+        <v>44546</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -867,8 +871,12 @@
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="12">
+        <v>20000</v>
+      </c>
+      <c r="D29" s="12">
+        <v>32500</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>

--- a/assets/Libro12.xlsx
+++ b/assets/Libro12.xlsx
@@ -83,9 +83,6 @@
     <t>Fecha escritura</t>
   </si>
   <si>
-    <t>Meses hasta primera cuota</t>
-  </si>
-  <si>
     <t>Capital prestado (Euros)</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Importe total de la deuda a la fecha de resolución:</t>
+  </si>
+  <si>
+    <t>Fecha primera cuota</t>
   </si>
 </sst>
 </file>
@@ -710,8 +710,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,15 +761,15 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="4">
+        <v>39158</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6">
         <v>84140</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <v>300</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5">
         <v>12</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="6">
         <v>4</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -833,19 +833,19 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -855,7 +855,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="11">
         <v>40852</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="12">
         <v>20000</v>
@@ -889,6 +889,7 @@
     <mergeCell ref="B24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -913,28 +914,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -8764,28 +8765,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -10142,12 +10143,12 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H56">
         <f>SUM(E2:E52)</f>
@@ -10156,7 +10157,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <f>SUM(F2:F52)</f>
@@ -10165,7 +10166,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <f>SUM(G2:G52)</f>
@@ -10174,7 +10175,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <f>SUM(H52:H52)</f>
@@ -10183,7 +10184,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <f>SUM(G53:G53)</f>
@@ -10192,7 +10193,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61" s="14">
         <f>SUM(H57:H60)</f>
